--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Experian\Development\mint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,103 +27,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Who are project members</t>
-  </si>
-  <si>
-    <t>Lawrence Chen</t>
-  </si>
-  <si>
-    <t>Janice Cutri</t>
-  </si>
-  <si>
-    <t>Lori Boulard</t>
-  </si>
-  <si>
-    <t>Nicholas Hopkins</t>
-  </si>
-  <si>
-    <t>Jeff Sharrah</t>
-  </si>
-  <si>
-    <t>Sample Folder Structure</t>
-  </si>
-  <si>
-    <t>Qvd's</t>
-  </si>
-  <si>
-    <t>Qvw's</t>
-  </si>
-  <si>
-    <t>Requirements Docs</t>
-  </si>
-  <si>
-    <t>Naming Conventions</t>
-  </si>
-  <si>
-    <t>Scheduled Reviews</t>
-  </si>
-  <si>
-    <t>UI Assets</t>
-  </si>
-  <si>
-    <t>Screen Res</t>
-  </si>
-  <si>
-    <t>Time Entry</t>
-  </si>
-  <si>
-    <t>Jeff Jaro</t>
-  </si>
-  <si>
-    <t>Lawrence's Manager</t>
-  </si>
-  <si>
-    <t>Project Sponsor</t>
-  </si>
-  <si>
-    <t>QV Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Works with Lori.  </t>
-  </si>
-  <si>
-    <t>Bob McCott</t>
-  </si>
-  <si>
-    <t>Test Data?</t>
-  </si>
-  <si>
-    <t>Spreadsheet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Est Hours</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remove “HC Legacy” and “Passport”; they are now integrated and the separation no longer applies</t>
+  </si>
+  <si>
+    <t>Lori will change on next data pull</t>
+  </si>
+  <si>
+    <t>Dashboard tab resets the user's selection every time the user switches back to the Dashboard tab</t>
+  </si>
+  <si>
+    <t>Remove clear trigger on activate of Dashboard tab</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>What is logic for Qtrs and Months on the Dashboard tab?  Which takes precedence?</t>
+  </si>
+  <si>
+    <t>Switching between tabs changes user's selection unexpectedly</t>
+  </si>
+  <si>
+    <t>Remove clear triggers</t>
+  </si>
+  <si>
+    <t>Build in all BUs/segments for Core NA and Total NA view</t>
+  </si>
+  <si>
+    <t>Build in other scenarios – multiple MMCs, FY16 budget</t>
+  </si>
+  <si>
+    <t>Additional graphics – FTE/Salary/Total Labour trend chart, Capital data (not captured currently)?</t>
+  </si>
+  <si>
+    <t>Incorporate both standard Cost account hierarchy AND new Global Cost Separation hierarchy (Global separation applies only to ’15 and ’16, not ’14, so some graphics using Prior Year need old hierarchy)</t>
+  </si>
+  <si>
+    <t>Where is Global Cost Separation heirarchy data?</t>
+  </si>
+  <si>
+    <t> Incorporate more FTE/Labor data now that Workforce Planning in place (“FTEAfterAttrition” and “Attrition”, FT, PT, Consultants)</t>
+  </si>
+  <si>
+    <t>Not in this Phase</t>
+  </si>
+  <si>
+    <t> Current period variances look correct through July (BU tested = CIS) but for months after July, Current Per. Variance = Current Period amount.  This implies no Prior Year or Budget amount to compare for periods after July which should not be the case</t>
+  </si>
+  <si>
+    <t>YTD data changes if a quarter is selected versus not (example: July with Q2 vs. July without selecting Q2)</t>
+  </si>
+  <si>
+    <r>
+      <t>YTD should always use </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> selected as default; only use Qtr if no month selected.  YTD should always show actuals up through the last month of the Qtr if Qtr selected, not zero (example: through October whether “Oct” selected or “Q3”)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>FTE – Looks like it’s summing instead of using last month of the period selected</t>
+  </si>
+  <si>
+    <t>Fill in Variance for ULGs (blank now)</t>
+  </si>
+  <si>
+    <t>Add section to right of YTD for "Full Year Forecast"; show current “Working” MMC, variance to Prior MMC, Prior Year, Budget</t>
+  </si>
+  <si>
+    <t>Replace the text objects in upper left with "Financial Summary"</t>
+  </si>
+  <si>
+    <t>EBIT month amounts look to be summing Actual, Budget, MMC, whatever data is available (example: CIS EBIT runs approx. $30M/month; graph shows up to $100M in some periods)</t>
+  </si>
+  <si>
+    <t>This should only be Actual</t>
+  </si>
+  <si>
+    <t>Summary Table</t>
+  </si>
+  <si>
+    <t>Revenue vs EBIT</t>
+  </si>
+  <si>
+    <t>Allow selection of what Actual is compared to (right now just Budget; would like option to choose MMC, Prior Year, HYR, etc. eventually)</t>
+  </si>
+  <si>
+    <t>Labor vs Headcount</t>
+  </si>
+  <si>
+    <t>Use different color to distinguish forecast period bars vs. actuals</t>
+  </si>
+  <si>
+    <t> Only Depreciation shows in the cost type chart (need to show other categories)</t>
+  </si>
+  <si>
+    <t>Cost Breakdown</t>
+  </si>
+  <si>
+    <t>This should be “Trend Chart” tab and allow any selection, not just a cost item (won’t display Revenue or Headcount)</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Trend Chart</t>
+  </si>
+  <si>
+    <t>Charts should not be dependent on other tabs except for BU selection (should always show 12-month view)</t>
+  </si>
+  <si>
+    <t>“Prior Year” is now showing – not sure what the previous issue was</t>
+  </si>
+  <si>
+    <t>Wishlist:  have multiple options to select/unselect for comparison – Budget, Prior Year (currently there) plus MMCx, MMCy, 3 years’ actuals</t>
+  </si>
+  <si>
+    <t>Wishlist:  can the Y-axis autoscale a bit better?  Example: Total Cost for CIS BU.  Lots of white space around cluster of data</t>
+  </si>
+  <si>
+    <t>Charts should not be dependent on other tabs except for BU selection (should always show Revenue, Sales, EBIT and FTE for 8 qtrs)</t>
+  </si>
+  <si>
+    <t>ULG</t>
+  </si>
+  <si>
+    <t>Option to add actual from a user specified scenario MMC1, 2, 3 etc</t>
+  </si>
+  <si>
+    <t>Cost ULG chart needs signs flipped (cost growth vs PY is a bad thing = negative sign, cost decrease vs PY is good thing = positive %)</t>
+  </si>
+  <si>
+    <t>For Healthcare, FY14 ULGs are showing Total Growth %s, not ULG (missing Exceptions in the calc)</t>
+  </si>
+  <si>
+    <t>be able to select Forecast definition – Budget, MMCx, MMCy, 8 qtrs of actuals only</t>
+  </si>
+  <si>
+    <t>Do “Costs” tab selections drive this, or vice versa?  Whenever I change one it changes other tabs but hard to see what is linked or not</t>
+  </si>
+  <si>
+    <t>Corporate Cost line is pulling “Other Costs” with “TotalPreAlloc” source instead of “Corporate Allocations” with “TotalCorpAlloc” source.  As a result Total Cost is off (2x counting Other Costs).  Strangely, this doesn’t seem to be a problem on the Dashboard tab (Total Cost is correct)</t>
+  </si>
+  <si>
+    <t>Headcount should follow same logic as elsewhere (always show last period in period selected).  Currently for Q3 it is blank instead of showing October’s number</t>
+  </si>
+  <si>
+    <t>P&amp;L</t>
+  </si>
+  <si>
+    <t>Add Total Year along with Qtrs for full view</t>
   </si>
   <si>
     <t>Tab</t>
   </si>
   <si>
-    <t>Object Desc</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>11.2 sr 9</t>
-  </si>
-  <si>
-    <t>1440x900</t>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Replacing wit Financial Summary??</t>
+  </si>
+  <si>
+    <t>Need to know what color</t>
+  </si>
+  <si>
+    <t>Complete Pending Answer</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Ignore any lower grain than year</t>
+  </si>
+  <si>
+    <t>Pending - will check back with Lori</t>
+  </si>
+  <si>
+    <t>This is on Summary Tab an on ULG Charts.</t>
+  </si>
+  <si>
+    <t>Ask Lori more detail on this</t>
+  </si>
+  <si>
+    <t>This chart and it's expression need a complete overhaul</t>
+  </si>
+  <si>
+    <t>Needs Clarification</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Bring in new hierarchy qvd provided 3/17</t>
+  </si>
+  <si>
+    <t>Change fact table from HackData to new files</t>
+  </si>
+  <si>
+    <t>Fix all hardcoded date variables</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Create conditionally shown admin per tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +332,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,153 +623,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>1.7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>1.9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2.1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>3.2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>6.1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>6.2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>6.3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>6.4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>7.1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>7.2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>7.3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>7.4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>8.1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>8.4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Experian\Development\mint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Item</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>Create conditionally shown admin per tab</t>
+  </si>
+  <si>
+    <t>Complete - Pending review</t>
+  </si>
+  <si>
+    <t>Bad values in data were preventing auto scale even after Forced Zero was toggled</t>
   </si>
 </sst>
 </file>
@@ -626,8 +632,8 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +699,9 @@
       <c r="F3">
         <v>4</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -817,6 +826,9 @@
         <v>14</v>
       </c>
       <c r="E11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -999,6 +1011,9 @@
       <c r="F20">
         <v>2</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1018,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1146,9 +1161,14 @@
       <c r="D28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F28">
         <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">

--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Experian\Development\mint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\GitHub\Mint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="6780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To do List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To do List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>Item</t>
   </si>
@@ -282,12 +282,21 @@
   <si>
     <t>Bad values in data were preventing auto scale even after Forced Zero was toggled</t>
   </si>
+  <si>
+    <t>Financial Summary</t>
+  </si>
+  <si>
+    <t>Refactor transform qvw to use for..loop to load data extract files of same structures</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +326,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,22 +353,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -364,6 +455,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G39" totalsRowCount="1" dataDxfId="10">
+  <autoFilter ref="A1:G38"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Tab" dataDxfId="9"/>
+    <tableColumn id="2" name="Object" dataDxfId="8"/>
+    <tableColumn id="3" name="Item" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Notes" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="4"/>
+    <tableColumn id="7" name="Status" dataDxfId="3" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,21 +736,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,7 +763,7 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -665,648 +772,748 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>0.5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>1.2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>1.3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8">
+      <c r="E9" s="4"/>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>1.4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>1.5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>1.6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>1.7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>1.8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>1.9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="3">
         <v>2.1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="3">
         <v>2.4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="3">
         <v>2.5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="3">
         <v>3.1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="3">
         <v>3.2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21">
+      <c r="E22" s="4"/>
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23">
+      <c r="E24" s="4"/>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="3">
         <v>6.1</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24">
+      <c r="E25" s="4"/>
+      <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="3">
         <v>6.2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
         <v>6.3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26">
+      <c r="E27" s="4"/>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
         <v>6.4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27">
+      <c r="E28" s="4"/>
+      <c r="F28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <v>6.5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F28">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
         <v>7.1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F29">
+      <c r="F30" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
         <v>7.2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30">
+      <c r="E31" s="4"/>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
         <v>7.3</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F31">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
         <v>7.4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32">
+      <c r="E33" s="4"/>
+      <c r="F33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C33">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
         <v>8.1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33">
+      <c r="E34" s="4"/>
+      <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F34">
+      <c r="F35" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F35">
+      <c r="F36" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C36">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
         <v>8.4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39">
+        <f>SUBTOTAL(109,Table1[Est Hours])</f>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To do List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To do List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
   <si>
     <t>Item</t>
   </si>
@@ -282,12 +282,24 @@
   <si>
     <t>Bad values in data were preventing auto scale even after Forced Zero was toggled</t>
   </si>
+  <si>
+    <t>Financial Summary</t>
+  </si>
+  <si>
+    <t>Refactor transform qvw to use for..loop to load data extract files of same structures</t>
+  </si>
+  <si>
+    <t>Iteration 2</t>
+  </si>
+  <si>
+    <t>Added conditional expression to trending chart</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +329,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,22 +356,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -364,6 +458,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G39" totalsRowCount="1" dataDxfId="10">
+  <autoFilter ref="A1:G38"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Tab" dataDxfId="9"/>
+    <tableColumn id="2" name="Object" dataDxfId="8"/>
+    <tableColumn id="3" name="Item" dataDxfId="7"/>
+    <tableColumn id="4" name="Description" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Notes" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="4"/>
+    <tableColumn id="7" name="Status" dataDxfId="3" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,21 +739,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,7 +766,7 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -665,648 +775,752 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>0.5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>1.2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>1.3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8">
+      <c r="E9" s="4"/>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>1.4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>1.5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>1.6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>1.7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>1.8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>1.9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="3">
         <v>2.1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="3">
         <v>2.4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="3">
         <v>2.5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="3">
         <v>3.1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="3">
         <v>3.2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21">
+      <c r="E22" s="4"/>
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23">
+      <c r="E24" s="4"/>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="3">
         <v>6.1</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24">
+      <c r="E25" s="4"/>
+      <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="3">
         <v>6.2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
         <v>6.3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26">
+      <c r="E27" s="4"/>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
         <v>6.4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27">
+      <c r="E28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C28">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
         <v>6.5</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F28">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
         <v>7.1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F29">
+      <c r="F30" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
         <v>7.2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30">
+      <c r="E31" s="4"/>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
         <v>7.3</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F31">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
         <v>7.4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32">
+      <c r="E33" s="4"/>
+      <c r="F33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C33">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
         <v>8.1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33">
+      <c r="E34" s="4"/>
+      <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F34">
+      <c r="F35" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F35">
+      <c r="F36" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C36">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
         <v>8.4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39">
+        <f>SUBTOTAL(109,Table1[Est Hours])</f>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>Item</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Added conditional expression to trending chart</t>
+  </si>
+  <si>
+    <t>Lawrence to rethink UI behavior</t>
+  </si>
+  <si>
+    <t>Low priority</t>
+  </si>
+  <si>
+    <t>Replace the text objects in upper left with "Financial Summary".  Iteration 2</t>
   </si>
 </sst>
 </file>
@@ -742,8 +751,8 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +847,9 @@
       <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -937,7 +948,9 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -971,9 +984,13 @@
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1003,7 +1020,9 @@
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
@@ -1061,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>

--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Experian\Development\mint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawrence\GitHub\Mint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Item</t>
   </si>
@@ -95,32 +95,6 @@
     <t>YTD data changes if a quarter is selected versus not (example: July with Q2 vs. July without selecting Q2)</t>
   </si>
   <si>
-    <r>
-      <t>YTD should always use </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> selected as default; only use Qtr if no month selected.  YTD should always show actuals up through the last month of the Qtr if Qtr selected, not zero (example: through October whether “Oct” selected or “Q3”)</t>
-    </r>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -232,9 +206,6 @@
     <t>Need to know what color</t>
   </si>
   <si>
-    <t>Complete Pending Answer</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -244,12 +215,6 @@
     <t>Ignore any lower grain than year</t>
   </si>
   <si>
-    <t>Pending - will check back with Lori</t>
-  </si>
-  <si>
-    <t>This is on Summary Tab an on ULG Charts.</t>
-  </si>
-  <si>
     <t>Ask Lori more detail on this</t>
   </si>
   <si>
@@ -259,9 +224,6 @@
     <t>Needs Clarification</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t>Bring in new hierarchy qvd provided 3/17</t>
   </si>
   <si>
@@ -271,15 +233,9 @@
     <t>Fix all hardcoded date variables</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Create conditionally shown admin per tab</t>
   </si>
   <si>
-    <t>Complete - Pending review</t>
-  </si>
-  <si>
     <t>Bad values in data were preventing auto scale even after Forced Zero was toggled</t>
   </si>
   <si>
@@ -289,17 +245,65 @@
     <t>Refactor transform qvw to use for..loop to load data extract files of same structures</t>
   </si>
   <si>
-    <t>Iteration 2</t>
-  </si>
-  <si>
     <t>Added conditional expression to trending chart</t>
+  </si>
+  <si>
+    <t>Codebase</t>
+  </si>
+  <si>
+    <t>Load script</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Lawrence to rethink UI behavior</t>
+  </si>
+  <si>
+    <t>depends on Item 0.5</t>
+  </si>
+  <si>
+    <t>Low priority</t>
+  </si>
+  <si>
+    <t>Replace the text objects in upper left with "Financial Summary".  Iteration 2</t>
+  </si>
+  <si>
+    <t>YTD should always use month selected as default; only use Qtr if no month selected.  YTD should always show actuals up through the last month of the Qtr if Qtr selected, not zero (example: through October whether “Oct” selected or “Q3”)</t>
+  </si>
+  <si>
+    <t>Complete - Pending Review</t>
+  </si>
+  <si>
+    <t>Complete - Pending Answer</t>
+  </si>
+  <si>
+    <t>Rename the tab to Trends</t>
+  </si>
+  <si>
+    <t>Lori and Bob to discuss and decide how if the sign to be flipped on the ULG chart (vs. on the P&amp;L and the Financial Summary)</t>
+  </si>
+  <si>
+    <t>This is on Summary Tab and on ULG Charts.</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Iteration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,14 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -361,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -376,14 +372,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -407,6 +403,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -461,16 +460,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G39" totalsRowCount="1" dataDxfId="10">
-  <autoFilter ref="A1:G38"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Tab" dataDxfId="9"/>
-    <tableColumn id="2" name="Object" dataDxfId="8"/>
-    <tableColumn id="3" name="Item" dataDxfId="7"/>
-    <tableColumn id="4" name="Description" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Notes" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="4"/>
-    <tableColumn id="7" name="Status" dataDxfId="3" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H39" totalsRowCount="1" dataDxfId="11">
+  <autoFilter ref="A1:H38"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Tab" dataDxfId="10"/>
+    <tableColumn id="2" name="Object" dataDxfId="9"/>
+    <tableColumn id="3" name="Item" dataDxfId="8"/>
+    <tableColumn id="4" name="Description" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Notes" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="5"/>
+    <tableColumn id="7" name="Status" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="8" name="Iteration" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,11 +739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,14 +754,15 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -778,19 +779,22 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3">
         <v>0.1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
@@ -799,19 +803,22 @@
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3">
         <v>0.2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3">
@@ -820,69 +827,85 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3">
         <v>0.3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3">
         <v>0.4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -900,10 +923,13 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -921,10 +947,13 @@
       <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -937,11 +966,16 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -959,10 +993,13 @@
       <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -971,13 +1008,22 @@
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -986,15 +1032,22 @@
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -1003,13 +1056,22 @@
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
@@ -1025,12 +1087,15 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -1045,14 +1110,19 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>2.1</v>
@@ -1061,21 +1131,24 @@
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3">
         <v>2.2000000000000002</v>
@@ -1084,159 +1157,182 @@
         <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>2.4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>2.5</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>3.1</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>3.2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3">
@@ -1245,59 +1341,72 @@
       <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>6.1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C26" s="3">
         <v>6.2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="3">
         <v>1.5</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
         <v>6.3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3">
@@ -1306,20 +1415,23 @@
       <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3">
         <v>6.4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1327,20 +1439,23 @@
       <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3">
         <v>6.5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1348,91 +1463,114 @@
       <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3">
         <v>7.1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="3">
         <v>1.5</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
         <v>7.2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
         <v>7.3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3">
         <v>7.4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="3">
         <v>2</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3">
         <v>8.1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3">
@@ -1441,79 +1579,110 @@
       <c r="G34" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3">
         <v>8.1999999999999993</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F36" s="3">
         <v>4</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3">
         <v>8.4</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
       <c r="F39">
         <f>SUBTOTAL(109,Table1[Est Hours])</f>
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/To do List.xlsx
+++ b/To do List.xlsx
@@ -13,11 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="To do List" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'To do List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>Item</t>
   </si>
@@ -297,6 +301,18 @@
   </si>
   <si>
     <t>Iteration</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Est Hours</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -352,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,16 +391,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -403,18 +436,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -459,6 +480,519 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lawrence Chen" refreshedDate="42087.866994791664" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Tab" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Object" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="9.1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Est Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="18" count="8">
+        <n v="0.5"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="0"/>
+        <n v="1"/>
+        <n v="1.5"/>
+        <n v="18"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Complete"/>
+        <s v="Not Started"/>
+        <s v="Pending"/>
+        <s v="Complete - Pending Review"/>
+        <s v="Complete - Pending Answer"/>
+        <s v="Pending Approval"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Iteration" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+  <r>
+    <s v="Codebase"/>
+    <s v="Load script"/>
+    <n v="0.1"/>
+    <s v="Bring in new hierarchy qvd provided 3/17"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Codebase"/>
+    <s v="Load script"/>
+    <n v="0.2"/>
+    <s v="Change fact table from HackData to new files"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Codebase"/>
+    <s v="Variable"/>
+    <n v="0.3"/>
+    <s v="Fix all hardcoded date variables"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Codebase"/>
+    <s v="Sheet"/>
+    <n v="0.4"/>
+    <s v="Create conditionally shown admin per tab"/>
+    <m/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Codebase"/>
+    <s v="Load script"/>
+    <n v="0.5"/>
+    <s v="Refactor transform qvw to use for..loop to load data extract files of same structures"/>
+    <m/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.1000000000000001"/>
+    <s v="Remove “HC Legacy” and “Passport”; they are now integrated and the separation no longer applies"/>
+    <s v="Lori will change on next data pull"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.2"/>
+    <s v="Dashboard tab resets the user's selection every time the user switches back to the Dashboard tab"/>
+    <s v="Remove clear trigger on activate of Dashboard tab"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.3"/>
+    <s v="What is logic for Qtrs and Months on the Dashboard tab?  Which takes precedence?"/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.4"/>
+    <s v="Switching between tabs changes user's selection unexpectedly"/>
+    <s v="Remove clear triggers"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.5"/>
+    <s v="Build in all BUs/segments for Core NA and Total NA view"/>
+    <s v="Lawrence to rethink UI behavior"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.6"/>
+    <s v="Build in other scenarios – multiple MMCs, FY16 budget"/>
+    <s v="depends on Item 0.5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.7"/>
+    <s v="Additional graphics – FTE/Salary/Total Labour trend chart, Capital data (not captured currently)?"/>
+    <s v="Low priority"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.8"/>
+    <s v="Incorporate both standard Cost account hierarchy AND new Global Cost Separation hierarchy (Global separation applies only to ’15 and ’16, not ’14, so some graphics using Prior Year need old hierarchy)"/>
+    <s v="Where is Global Cost Separation heirarchy data?"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="General"/>
+    <m/>
+    <n v="1.9"/>
+    <s v=" Incorporate more FTE/Labor data now that Workforce Planning in place (“FTEAfterAttrition” and “Attrition”, FT, PT, Consultants)"/>
+    <s v="Not in this Phase"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Summary Table"/>
+    <n v="2.1"/>
+    <s v=" Current period variances look correct through July (BU tested = CIS) but for months after July, Current Per. Variance = Current Period amount.  This implies no Prior Year or Budget amount to compare for periods after July which should not be the case"/>
+    <s v="Replace the text objects in upper left with &quot;Financial Summary&quot;.  Iteration 2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Summary Table"/>
+    <n v="2.2000000000000002"/>
+    <s v="YTD data changes if a quarter is selected versus not (example: July with Q2 vs. July without selecting Q2)"/>
+    <s v="YTD should always use month selected as default; only use Qtr if no month selected.  YTD should always show actuals up through the last month of the Qtr if Qtr selected, not zero (example: through October whether “Oct” selected or “Q3”)"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Summary Table"/>
+    <n v="2.2999999999999998"/>
+    <s v="FTE – Looks like it’s summing instead of using last month of the period selected"/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Summary Table"/>
+    <n v="2.4"/>
+    <s v="Fill in Variance for ULGs (blank now)"/>
+    <s v="Replacing wit Financial Summary??"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Summary Table"/>
+    <n v="2.5"/>
+    <s v="Add section to right of YTD for &quot;Full Year Forecast&quot;; show current “Working” MMC, variance to Prior MMC, Prior Year, Budget"/>
+    <s v="Replace the text objects in upper left with &quot;Financial Summary&quot;"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Revenue vs EBIT"/>
+    <n v="3.1"/>
+    <s v="EBIT month amounts look to be summing Actual, Budget, MMC, whatever data is available (example: CIS EBIT runs approx. $30M/month; graph shows up to $100M in some periods)"/>
+    <s v="This should only be Actual"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Revenue vs EBIT"/>
+    <n v="3.2"/>
+    <s v="Allow selection of what Actual is compared to (right now just Budget; would like option to choose MMC, Prior Year, HYR, etc. eventually)"/>
+    <m/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Labor vs Headcount"/>
+    <n v="4.0999999999999996"/>
+    <s v="Use different color to distinguish forecast period bars vs. actuals"/>
+    <s v="Need to know what color"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dashboard"/>
+    <s v="Cost Breakdown"/>
+    <n v="5.0999999999999996"/>
+    <s v=" Only Depreciation shows in the cost type chart (need to show other categories)"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cost"/>
+    <s v="Trend Chart"/>
+    <n v="6.1"/>
+    <s v="This should be “Trend Chart” tab and allow any selection, not just a cost item (won’t display Revenue or Headcount)"/>
+    <s v="Rename the tab to Trends"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cost"/>
+    <s v="Trend Chart"/>
+    <n v="6.2"/>
+    <s v="Charts should not be dependent on other tabs except for BU selection (should always show 12-month view)"/>
+    <s v="Ignore any lower grain than year"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cost"/>
+    <m/>
+    <n v="6.3"/>
+    <s v="“Prior Year” is now showing – not sure what the previous issue was"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cost"/>
+    <m/>
+    <n v="6.4"/>
+    <s v="Wishlist:  have multiple options to select/unselect for comparison – Budget, Prior Year (currently there) plus MMCx, MMCy, 3 years’ actuals"/>
+    <s v="Added conditional expression to trending chart"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cost"/>
+    <m/>
+    <n v="6.5"/>
+    <s v="Wishlist:  can the Y-axis autoscale a bit better?  Example: Total Cost for CIS BU.  Lots of white space around cluster of data"/>
+    <s v="Bad values in data were preventing auto scale even after Forced Zero was toggled"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ULG"/>
+    <m/>
+    <n v="7.1"/>
+    <s v="Charts should not be dependent on other tabs except for BU selection (should always show Revenue, Sales, EBIT and FTE for 8 qtrs)"/>
+    <s v="Option to add actual from a user specified scenario MMC1, 2, 3 etc"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ULG"/>
+    <m/>
+    <n v="7.2"/>
+    <s v="Cost ULG chart needs signs flipped (cost growth vs PY is a bad thing = negative sign, cost decrease vs PY is good thing = positive %)"/>
+    <s v="Lori and Bob to discuss and decide how if the sign to be flipped on the ULG chart (vs. on the P&amp;L and the Financial Summary)"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ULG"/>
+    <m/>
+    <n v="7.3"/>
+    <s v="For Healthcare, FY14 ULGs are showing Total Growth %s, not ULG (missing Exceptions in the calc)"/>
+    <s v="This is on Summary Tab and on ULG Charts."/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ULG"/>
+    <m/>
+    <n v="7.4"/>
+    <s v="be able to select Forecast definition – Budget, MMCx, MMCy, 8 qtrs of actuals only"/>
+    <m/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="P&amp;L"/>
+    <m/>
+    <n v="8.1"/>
+    <s v="Do “Costs” tab selections drive this, or vice versa?  Whenever I change one it changes other tabs but hard to see what is linked or not"/>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="P&amp;L"/>
+    <m/>
+    <n v="8.1999999999999993"/>
+    <s v="Corporate Cost line is pulling “Other Costs” with “TotalPreAlloc” source instead of “Corporate Allocations” with “TotalCorpAlloc” source.  As a result Total Cost is off (2x counting Other Costs).  Strangely, this doesn’t seem to be a problem on the Dashboard tab (Total Cost is correct)"/>
+    <s v="Needs Clarification"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="P&amp;L"/>
+    <m/>
+    <n v="8.3000000000000007"/>
+    <s v="Headcount should follow same logic as elsewhere (always show last period in period selected).  Currently for Q3 it is blank instead of showing October’s number"/>
+    <s v="This chart and it's expression need a complete overhaul"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="P&amp;L"/>
+    <m/>
+    <n v="8.4"/>
+    <s v="Add Total Year along with Qtrs for full view"/>
+    <s v="Ask Lori more detail on this"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Financial Summary"/>
+    <m/>
+    <n v="9.1"/>
+    <s v="TBD"/>
+    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Est Hours" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H39" totalsRowCount="1" dataDxfId="11">
   <autoFilter ref="A1:H38"/>
@@ -466,11 +1000,11 @@
     <tableColumn id="1" name="Tab" dataDxfId="10"/>
     <tableColumn id="2" name="Object" dataDxfId="9"/>
     <tableColumn id="3" name="Item" dataDxfId="8"/>
-    <tableColumn id="4" name="Description" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Notes" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="5"/>
-    <tableColumn id="7" name="Status" dataDxfId="4" totalsRowDxfId="0"/>
-    <tableColumn id="8" name="Iteration" dataDxfId="3"/>
+    <tableColumn id="4" name="Description" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="Notes" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Est Hours" totalsRowFunction="sum" dataDxfId="3"/>
+    <tableColumn id="7" name="Status" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="Iteration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,7 +1277,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,13 +1428,13 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1604,7 +2138,7 @@
         <v>77</v>
       </c>
       <c r="H35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1628,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1682,7 +2216,7 @@
       <c r="E39" s="1"/>
       <c r="F39">
         <f>SUBTOTAL(109,Table1[Est Hours])</f>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1692,4 +2226,71 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>